--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656298.1910901605</v>
+        <v>656639.284867642</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461765</v>
+        <v>8966943.138461769</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7761307.945612884</v>
+        <v>7744253.445580875</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -668,16 +670,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32.9937807002332</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>336.748425770774</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>19.85905444009098</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>324.3369644315824</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>392.1963119991644</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>124.0503586401942</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>22.96189723698673</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>25.35996799970696</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>163.3119823524962</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,7 +1198,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>86.64940239199029</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.8222677061717</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>313.1690221750402</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1607,19 +1609,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.93984954204063</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>292.7899906785026</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>17.4614352770961</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1786,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108.6645753114163</v>
+        <v>304.007403971462</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>113.1667354347866</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>318.6092597992969</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>328.8748970912711</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>93.52529077486081</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>64.32559272825135</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
@@ -2254,7 +2256,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>115.6961599732933</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2333,10 +2335,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>76.95628087113379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2476,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>39.2158635648864</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>114.7890777533883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>9.151813487965596</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>108.8247535352256</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2722,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.514901004497</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2795,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>357.2936481843886</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2807,7 +2809,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2846,16 +2848,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>97.96998581632533</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>21.6270825883018</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>147.8279795613425</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>127.0733052664699</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>130.3553607729761</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.3149947016328</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347872</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>394.6220495976011</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -3323,13 +3325,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>219.3937780697458</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>30.76686263866195</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
@@ -3484,7 +3486,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3515,13 +3517,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.9123115428293</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>248.5603837109853</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>165.6158245190444</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>14.43980520261423</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3755,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -3788,7 +3790,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>101.5727550055277</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.60616845650159</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3989,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>378.0384581906478</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>219.0985733926083</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.30888115713355</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1228.513125265401</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C2" t="n">
-        <v>835.3376237683314</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D2" t="n">
-        <v>449.8964949849991</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433306</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618595</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.64850507718</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="X2" t="n">
-        <v>2025.498580056196</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.007870976798</v>
+        <v>2127.814985091395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340349</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171667</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154358</v>
       </c>
       <c r="K3" t="n">
         <v>367.0521161637701</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>858.0088487631988</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G4" t="n">
         <v>366.2642166768698</v>
@@ -4483,16 +4485,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4510,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>366.2642166768698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1598.158760966069</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="C5" t="n">
-        <v>1204.983259468999</v>
+        <v>1972.47300358011</v>
       </c>
       <c r="D5" t="n">
-        <v>877.3701640835627</v>
+        <v>1587.031874796778</v>
       </c>
       <c r="E5" t="n">
-        <v>877.3701640835627</v>
+        <v>1184.448349913322</v>
       </c>
       <c r="F5" t="n">
-        <v>460.4757256135405</v>
+        <v>767.5539114432999</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>1572.076674393824</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.64850507718</v>
+        <v>2012.116275286153</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2360.303767417675</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W5" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X5" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y5" t="n">
-        <v>1598.158760966069</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L6" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M6" t="n">
-        <v>1443.506853769802</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>2021.614212075287</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4689,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="C7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="E7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="F7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
       <c r="G7" t="n">
-        <v>100.8850758683575</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H7" t="n">
-        <v>100.8850758683575</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W7" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X7" t="n">
-        <v>100.8850758683575</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.8850758683575</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1000.299222104186</v>
+        <v>466.1046008912463</v>
       </c>
       <c r="C8" t="n">
-        <v>1000.299222104186</v>
+        <v>72.92909939417689</v>
       </c>
       <c r="D8" t="n">
-        <v>614.8580933208539</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>212.2745684373984</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>212.2745684373984</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>212.2745684373984</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>666.9511603618595</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1212.95206040644</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1740.763344043902</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V8" t="n">
-        <v>1767.788966215297</v>
+        <v>2023.541695780698</v>
       </c>
       <c r="W8" t="n">
-        <v>1396.789931183585</v>
+        <v>1652.542660748985</v>
       </c>
       <c r="X8" t="n">
-        <v>1396.789931183585</v>
+        <v>1263.090055682042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000.299222104186</v>
+        <v>866.5993466026432</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>1029.265125924706</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1614.763130931308</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>622.0429194582225</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>622.0429194582225</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
         <v>534.5182705774242</v>
@@ -4957,16 +4959,16 @@
         <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4984,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1262.811292866895</v>
+        <v>1568.663050286384</v>
       </c>
       <c r="C11" t="n">
-        <v>1262.811292866895</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D11" t="n">
-        <v>877.3701640835627</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E11" t="n">
         <v>877.3701640835627</v>
@@ -5030,61 +5032,61 @@
         <v>460.4757256135405</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L11" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W11" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X11" t="n">
-        <v>1659.302001946294</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y11" t="n">
-        <v>1262.811292866895</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K12" t="n">
-        <v>194.5661265746808</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>678.1322124729941</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>1263.630217479596</v>
+        <v>1436.116207068685</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486198</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.648505077179</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
         <v>2365.648505077179</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D13" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E13" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>825.9296003819453</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C14" t="n">
-        <v>432.7540988848759</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D14" t="n">
-        <v>47.31297010154361</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.79762054739</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184852</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2268.120389805085</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2268.120389805085</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U14" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V14" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W14" t="n">
-        <v>2012.367660239684</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.915055172741</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y14" t="n">
-        <v>1226.424346093342</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5351,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1374.52913135418</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1960.027136360782</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O15" t="n">
         <v>1960.027136360782</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7358901343441</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="C16" t="n">
-        <v>390.5307722003333</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="D16" t="n">
-        <v>372.8929587891251</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="E16" t="n">
-        <v>372.8929587891251</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="F16" t="n">
-        <v>215.5670240020981</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>745.9439088256454</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T16" t="n">
-        <v>745.9439088256454</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U16" t="n">
-        <v>745.9439088256454</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V16" t="n">
-        <v>745.9439088256454</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="W16" t="n">
-        <v>745.9439088256454</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="X16" t="n">
-        <v>745.9439088256454</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.9439088256454</v>
+        <v>77.69124027544164</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>756.8371493183852</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C17" t="n">
-        <v>756.8371493183852</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D17" t="n">
-        <v>371.396020535053</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E17" t="n">
-        <v>371.396020535053</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F17" t="n">
-        <v>371.396020535053</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J17" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K17" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L17" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M17" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N17" t="n">
-        <v>1590.266290800943</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V17" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W17" t="n">
-        <v>1652.542660748986</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X17" t="n">
-        <v>1263.090055682043</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Y17" t="n">
-        <v>866.5993466026441</v>
+        <v>2365.648505077179</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K18" t="n">
         <v>367.0521161637701</v>
@@ -5601,34 +5603,34 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1263.630217479597</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N18" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5713,10 +5715,10 @@
         <v>161.6228038740554</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1184.806062432954</v>
+        <v>1179.21044521944</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.806062432954</v>
+        <v>786.0349437223708</v>
       </c>
       <c r="D20" t="n">
-        <v>799.3649336496217</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E20" t="n">
-        <v>799.3649336496217</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F20" t="n">
-        <v>799.3649336496217</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2321.615293661099</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="U20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.949313991765</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="W20" t="n">
-        <v>2306.950278960053</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="X20" t="n">
-        <v>1917.49767389311</v>
+        <v>1976.195900010236</v>
       </c>
       <c r="Y20" t="n">
-        <v>1585.300808144351</v>
+        <v>1579.705190930837</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415744</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016666</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231469</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340346</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171665</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890309</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963185</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154343</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N21" t="n">
-        <v>1493.196009291336</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607028</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.4752876825357</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>778.3581315543667</v>
+        <v>854.2900019614185</v>
       </c>
       <c r="C22" t="n">
-        <v>608.1530136203559</v>
+        <v>684.0848840274077</v>
       </c>
       <c r="D22" t="n">
-        <v>608.1530136203559</v>
+        <v>528.4517709299225</v>
       </c>
       <c r="E22" t="n">
-        <v>543.177667430203</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F22" t="n">
-        <v>385.851732643176</v>
+        <v>215.567024002098</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>960.1439538756169</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.5661502456679</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1925.994876927903</v>
+        <v>2089.752015541718</v>
       </c>
       <c r="C23" t="n">
-        <v>1532.819375430834</v>
+        <v>1696.576514044649</v>
       </c>
       <c r="D23" t="n">
-        <v>1147.378246647502</v>
+        <v>1696.576514044649</v>
       </c>
       <c r="E23" t="n">
-        <v>1030.51343859367</v>
+        <v>1293.992989161193</v>
       </c>
       <c r="F23" t="n">
-        <v>613.6190001236475</v>
+        <v>877.098550691171</v>
       </c>
       <c r="G23" t="n">
-        <v>200.4562446116507</v>
+        <v>463.9357951791741</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>139.8527447456648</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6002,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U23" t="n">
-        <v>2715.942227706244</v>
+        <v>2850.203655640374</v>
       </c>
       <c r="V23" t="n">
-        <v>2715.942227706244</v>
+        <v>2850.203655640374</v>
       </c>
       <c r="W23" t="n">
-        <v>2715.942227706244</v>
+        <v>2479.204620608662</v>
       </c>
       <c r="X23" t="n">
-        <v>2326.4896226393</v>
+        <v>2089.752015541718</v>
       </c>
       <c r="Y23" t="n">
-        <v>2326.4896226393</v>
+        <v>2089.752015541718</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>740.4540890623113</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>570.2489711283005</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>414.6158580308152</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>259.0570458900177</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>101.7311111029907</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>2990.007821818515</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>2704.569030060416</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>2438.589684881241</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W25" t="n">
-        <v>2438.589684881241</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>740.4540890623113</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2142.457375356031</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C26" t="n">
-        <v>1749.281873858962</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D26" t="n">
-        <v>1363.840745075629</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E26" t="n">
-        <v>1354.596489027179</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6251,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2939.442830146827</v>
+        <v>2996.032391735851</v>
       </c>
       <c r="T26" t="n">
-        <v>2939.442830146827</v>
+        <v>2996.032391735851</v>
       </c>
       <c r="U26" t="n">
-        <v>2939.442830146827</v>
+        <v>2740.27966217045</v>
       </c>
       <c r="V26" t="n">
-        <v>2939.442830146827</v>
+        <v>2398.172852873969</v>
       </c>
       <c r="W26" t="n">
-        <v>2939.442830146827</v>
+        <v>2027.173817842256</v>
       </c>
       <c r="X26" t="n">
-        <v>2939.442830146827</v>
+        <v>1637.721212775313</v>
       </c>
       <c r="Y26" t="n">
-        <v>2542.952121067428</v>
+        <v>1241.230503695914</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M27" t="n">
-        <v>1458.313011372373</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>3105.956385205776</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>3105.956385205776</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U28" t="n">
-        <v>2820.517593447677</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="W28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2820.517593447677</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1818.538092260458</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="C29" t="n">
-        <v>1818.538092260458</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="D29" t="n">
-        <v>1433.096963477125</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E29" t="n">
-        <v>1030.51343859367</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F29" t="n">
-        <v>613.6190001236475</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G29" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H29" t="n">
         <v>200.4562446116507</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S29" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T29" t="n">
-        <v>2677.949313991765</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U29" t="n">
-        <v>2578.989732359114</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V29" t="n">
-        <v>2578.989732359114</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W29" t="n">
-        <v>2207.990697327401</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="X29" t="n">
-        <v>1818.538092260458</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="Y29" t="n">
-        <v>1818.538092260458</v>
+        <v>2118.082688844361</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.6390797226007</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>542.6390797226007</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>542.6390797226007</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>520.7935417546191</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>363.4676069675921</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
         <v>62.11912770411553</v>
@@ -6646,25 +6648,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T31" t="n">
-        <v>727.847098413902</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U31" t="n">
-        <v>727.847098413902</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V31" t="n">
-        <v>727.847098413902</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W31" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X31" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2535.796644191037</v>
+        <v>2270.978016700502</v>
       </c>
       <c r="C32" t="n">
         <v>2142.621142693967</v>
@@ -6743,7 +6745,7 @@
         <v>3067.963471491298</v>
       </c>
       <c r="Y32" t="n">
-        <v>2936.291389902433</v>
+        <v>2671.472762411899</v>
       </c>
     </row>
     <row r="33">
@@ -6783,16 +6785,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6886,22 +6888,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>2870.237333374011</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>2584.798541615912</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>2318.819196436736</v>
       </c>
       <c r="W34" t="n">
-        <v>2822.625983136954</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="X34" t="n">
-        <v>2588.545660919937</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y34" t="n">
-        <v>2365.43359973658</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D35" t="n">
-        <v>524.5392950451601</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E35" t="n">
-        <v>524.5392950451601</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F35" t="n">
-        <v>524.5392950451601</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H35" t="n">
         <v>200.4562446116507</v>
@@ -6971,16 +6973,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V35" t="n">
-        <v>2080.089775129883</v>
+        <v>2200.586707588237</v>
       </c>
       <c r="W35" t="n">
-        <v>1709.09074009817</v>
+        <v>1829.587672556524</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.638135031227</v>
+        <v>1829.587672556524</v>
       </c>
       <c r="Y35" t="n">
-        <v>923.1474259518279</v>
+        <v>1433.096963477125</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
         <v>62.11912770411553</v>
@@ -7123,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>412.1480133083932</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1818.538092260458</v>
+        <v>1949.014036027722</v>
       </c>
       <c r="C38" t="n">
-        <v>1818.538092260458</v>
+        <v>1555.838534530652</v>
       </c>
       <c r="D38" t="n">
-        <v>1433.096963477125</v>
+        <v>1170.39740574732</v>
       </c>
       <c r="E38" t="n">
-        <v>1030.51343859367</v>
+        <v>767.8138808638644</v>
       </c>
       <c r="F38" t="n">
-        <v>613.6190001236475</v>
+        <v>350.9194423938421</v>
       </c>
       <c r="G38" t="n">
-        <v>200.4562446116507</v>
+        <v>350.9194423938421</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2812.210741925897</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2470.103932629415</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2470.103932629415</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X38" t="n">
-        <v>2219.032837971854</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y38" t="n">
-        <v>2219.032837971854</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="39">
@@ -7257,19 +7259,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
         <v>62.11912770411553</v>
@@ -7363,19 +7365,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X40" t="n">
-        <v>796.2774386102695</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1762.357652345071</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C41" t="n">
-        <v>1369.182150848002</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D41" t="n">
-        <v>1369.182150848002</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.596489027179</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
         <v>200.4562446116507</v>
@@ -7436,25 +7438,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2559.343107135867</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W41" t="n">
-        <v>2559.343107135867</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="X41" t="n">
-        <v>2559.343107135867</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y41" t="n">
-        <v>2162.852398056468</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>760.7500664282172</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U43" t="n">
-        <v>760.7500664282172</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V43" t="n">
-        <v>494.7707212490415</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>494.7707212490415</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>271.6586600656848</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1634.089090713755</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C44" t="n">
-        <v>1634.089090713755</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D44" t="n">
-        <v>1248.647961930423</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E44" t="n">
-        <v>846.0644370469677</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F44" t="n">
-        <v>429.1699985769454</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>191.9627430103717</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>550.9450990378335</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
-        <v>1044.265390756362</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1590.266290800943</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2118.077574438405</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.541695780699</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>2023.541695780699</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X44" t="n">
-        <v>1634.089090713755</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.089090713755</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415751</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016672</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231476</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340353</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.057458417167</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890315</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963223</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154367</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>47.31297010154361</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>530.8790559998569</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1116.377061006459</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1701.875066013061</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2218.395348604042</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2365.64850507718</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825364</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2102.924460494948</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>1932.719342560937</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>1777.086229463452</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>1621.527417322655</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>1464.201482535628</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>1546.036523645569</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>1710.164163519369</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>1896.455741857633</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>2079.645375888842</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>2242.350142930551</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>2362.226308707129</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>2365.64850507718</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>2162.832421259729</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>2162.832421259729</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>2162.832421259729</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>2162.832421259729</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>2162.832421259729</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>2162.832421259729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>2162.832421259729</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901334</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,13 +8063,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>99.852421747409</v>
+        <v>588.3030135638863</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8231,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>149.8974233269826</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,19 +8303,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>577.0069902189997</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>197.8603359779021</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,10 +8455,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>270.42600945173</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8467,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>410.5393874591622</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>509.5709760063966</v>
+        <v>647.0315943131588</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8769,22 +8771,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3374974274113</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>92.83741255226305</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -8927,13 +8929,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9003,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9014,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>621.5900809302174</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>507.6329599720901</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9173,16 +9175,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>509.5709760063966</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>188.9766897477665</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O21" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,10 +9719,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,13 +9731,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>577.006990218999</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,13 +10193,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10367,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10431,19 +10433,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,22 +10907,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11078,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11136,19 +11138,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11309,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>188.2718157159443</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -22610,10 +22612,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>48.80965324549976</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22710,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>262.7253494004271</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -22787,19 +22789,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>57.24975306391656</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>16.83481595771246</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22844,13 +22846,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>42.52115472135472</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.8015838723062</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -23005,10 +23007,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>356.226749495792</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23036,7 +23038,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>157.530237576678</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23075,7 +23077,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,7 +23086,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23182,13 +23184,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>69.10327304716648</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>103.421478775927</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23321,7 +23323,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>72.38905684123353</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>105.9085699663193</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>99.73581131010224</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>136.6153466894143</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -23674,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>240.3576544903973</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>287.8252229428666</v>
+        <v>92.48239428282091</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
         <v>136.9537457384598</v>
@@ -23789,16 +23791,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>62.97745769620201</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24014,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24029,13 +24031,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>63.65090489733382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>89.83064772952746</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89.67763129113816</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>282.8615296613276</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>59.99746486732603</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24364,19 +24366,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>127.3556497966625</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24415,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>118.5727835600599</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>389.4058761466553</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>56.02366597313431</v>
       </c>
       <c r="T26" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24610,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>28.23777443465976</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448966</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -24683,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>24.29306931111034</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>155.225216453422</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24844,19 +24846,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>132.3761414310877</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24886,19 +24888,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>134.7564242791756</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>262.1704412156288</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1704412156288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.04094380275544</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
         <v>168.5030667546707</v>
@@ -25126,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>167.3303626133469</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.867748656681783</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -25160,16 +25162,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>119.291963133771</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25324,16 +25326,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>135.8046507228869</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>34.92990838634489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25445,19 +25447,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>136.9976953052884</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25603,19 +25605,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.12369447580232</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25634,7 +25636,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>384.1178844320066</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25691,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>283.985324010746</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>108.3175970716194</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>30.99266976622908</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25922,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>148.1904712887871</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>124.0470573472547</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26071,22 +26073,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632864.5807388016</v>
+        <v>632864.5807388013</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632864.5807388016</v>
+        <v>632864.5807388015</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632864.5807388016</v>
+        <v>632864.5807388013</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632864.5807388013</v>
+        <v>632864.5807388017</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632864.580738802</v>
+        <v>632864.5807388017</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712993.0559827117</v>
+        <v>632864.5807388012</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712993.0559827117</v>
+        <v>712993.0559827115</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712993.0559827117</v>
+        <v>712993.0559827118</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712993.055982712</v>
+        <v>712993.0559827118</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712993.0559827115</v>
+        <v>712993.0559827118</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>632864.5807388014</v>
+        <v>712993.0559827117</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26316,7 @@
         <v>191980.2613012998</v>
       </c>
       <c r="C2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="D2" t="n">
         <v>191980.2613012999</v>
@@ -26323,13 +26325,13 @@
         <v>191980.2613012998</v>
       </c>
       <c r="F2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="G2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="H2" t="n">
-        <v>216278.5473416248</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="I2" t="n">
         <v>216278.5473416247</v>
@@ -26344,16 +26346,16 @@
         <v>216278.5473416247</v>
       </c>
       <c r="M2" t="n">
+        <v>216278.5473416247</v>
+      </c>
+      <c r="N2" t="n">
         <v>216278.5473416248</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>216278.5473416248</v>
+      </c>
+      <c r="P2" t="n">
         <v>216278.5473416247</v>
-      </c>
-      <c r="O2" t="n">
-        <v>216278.5473416247</v>
-      </c>
-      <c r="P2" t="n">
-        <v>191980.2613012998</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>49215.85294791909</v>
       </c>
       <c r="J3" t="n">
         <v>154739.4343656034</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="C4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="E4" t="n">
         <v>34799.20444337101</v>
@@ -26430,10 +26432,10 @@
         <v>34799.20444337101</v>
       </c>
       <c r="G4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="H4" t="n">
-        <v>39261.69958392654</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="I4" t="n">
         <v>39261.69958392654</v>
@@ -26457,7 +26459,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337102</v>
+        <v>39261.69958392654</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110600.2064109893</v>
+        <v>-110600.2064109892</v>
       </c>
       <c r="C6" t="n">
-        <v>87595.59958075569</v>
+        <v>87595.59958075575</v>
       </c>
       <c r="D6" t="n">
         <v>87595.59958075575</v>
@@ -26537,13 +26539,13 @@
         <v>121223.1995807557</v>
       </c>
       <c r="H6" t="n">
-        <v>79870.87849516637</v>
+        <v>121223.1995807557</v>
       </c>
       <c r="I6" t="n">
-        <v>129806.3107025704</v>
+        <v>80590.45775465126</v>
       </c>
       <c r="J6" t="n">
-        <v>-24933.12366303305</v>
+        <v>-24933.12366303303</v>
       </c>
       <c r="K6" t="n">
         <v>129806.3107025704</v>
@@ -26552,16 +26554,16 @@
         <v>129806.3107025704</v>
       </c>
       <c r="M6" t="n">
+        <v>129806.3107025704</v>
+      </c>
+      <c r="N6" t="n">
         <v>129806.3107025705</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>129806.3107025705</v>
+      </c>
+      <c r="P6" t="n">
         <v>129806.3107025704</v>
-      </c>
-      <c r="O6" t="n">
-        <v>129806.3107025704</v>
-      </c>
-      <c r="P6" t="n">
-        <v>121223.1995807557</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>127.593836910896</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7.465299698097082</v>
+        <v>495.9158915145745</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -34951,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.398724908590421</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,19 +35023,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>484.6198681696878</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>110.7769711585874</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,10 +35175,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>117.1778397212383</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35187,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>260.9755500350659</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>417.1838539570846</v>
+        <v>554.644472263847</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>148.740562094078</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>7.465299698096393</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35734,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>529.2029588809055</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>414.9454010832013</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35893,16 +35895,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>417.1838539570846</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>44.47799132937432</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O21" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,13 +36451,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696871</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>656639.284867642</v>
+        <v>651361.5555817713</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>2688149.65423872</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461769</v>
+        <v>8966943.138461767</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7744253.445580875</v>
+        <v>7744253.445580877</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>297.6328493298827</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>32.9937807002332</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>19.85905444009098</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.9711852604798</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>392.1963119991644</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1068,16 +1068,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>124.0503586401942</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,19 +1135,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.35996799970696</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>137.2009244055675</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>285.8222677061717</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>229.3667756052615</v>
       </c>
     </row>
     <row r="12">
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>53.03638470914581</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>119.3070638464438</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>292.7899906785026</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>22.96189723698674</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>304.007403971462</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>219.2060767147285</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2064,10 +2064,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>113.1667354347867</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>318.6092597992969</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>277.4672454072547</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.52529077486081</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>8.001551092386105</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,10 +2335,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.95628087113379</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>39.2158635648864</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>166.952032372453</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>108.8247535352256</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -2620,7 +2620,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>357.2936481843886</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2809,10 +2809,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -2851,7 +2851,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>327.1467702353185</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U31" t="n">
-        <v>147.8279795613425</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3031,25 +3031,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>127.0733052664699</v>
+        <v>114.8863049850609</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3243,13 +3243,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>115.2540412271704</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>113.1667354347872</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>328.5651223637132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -3325,7 +3325,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>219.3937780697458</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3483,16 +3483,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>113.1667354347865</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>95.98918911403641</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3517,10 +3517,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>285.9123115428293</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>6.304550306144101</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>95.98918911403638</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3757,7 +3757,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -3790,10 +3790,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>204.2887589996506</v>
       </c>
       <c r="X41" t="n">
-        <v>101.5727550055277</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,7 +3991,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>191.6541629312305</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>219.0985733926083</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>66.03149870010071</v>
+        <v>95.98918911403641</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2127.814985091395</v>
+        <v>347.9522118488999</v>
       </c>
       <c r="C2" t="n">
-        <v>2127.814985091395</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D2" t="n">
-        <v>1742.373856308063</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>173.6308686433306</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>666.9511603618595</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1212.95206040644</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.763344043902</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936231</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2127.814985091395</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>2127.814985091395</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V2" t="n">
-        <v>2127.814985091395</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.814985091395</v>
+        <v>1534.390271706639</v>
       </c>
       <c r="X2" t="n">
-        <v>2127.814985091395</v>
+        <v>1144.937666639696</v>
       </c>
       <c r="Y2" t="n">
-        <v>2127.814985091395</v>
+        <v>748.4469575602968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340349</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171667</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154358</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K3" t="n">
         <v>367.0521161637701</v>
@@ -4418,34 +4418,34 @@
         <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631988</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769801</v>
+        <v>1538.048126176974</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>366.2642166768698</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>366.2642166768698</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2365.648505077179</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C5" t="n">
-        <v>1972.47300358011</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D5" t="n">
-        <v>1587.031874796778</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E5" t="n">
-        <v>1184.448349913322</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F5" t="n">
-        <v>767.5539114432999</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
         <v>191.9627430103717</v>
@@ -4576,43 +4576,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1044.265390756362</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1572.076674393824</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
-        <v>2012.116275286153</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.303767417675</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U5" t="n">
-        <v>2365.648505077179</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V5" t="n">
-        <v>2365.648505077179</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.648505077179</v>
+        <v>1391.049144593925</v>
       </c>
       <c r="X5" t="n">
-        <v>2365.648505077179</v>
+        <v>1001.596539526981</v>
       </c>
       <c r="Y5" t="n">
-        <v>2365.648505077179</v>
+        <v>605.1058304475825</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>850.6182020620834</v>
+        <v>554.666034792687</v>
       </c>
       <c r="M6" t="n">
-        <v>1436.116207068685</v>
+        <v>1140.164039799289</v>
       </c>
       <c r="N6" t="n">
-        <v>2021.614212075287</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O6" t="n">
-        <v>2021.614212075287</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
         <v>2131.283413522289</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>466.1046008912463</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C8" t="n">
-        <v>72.92909939417689</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618595</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.95206040644</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043902</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936231</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.648505077179</v>
+        <v>2022.555243974897</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.648505077179</v>
+        <v>2022.555243974897</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780698</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748985</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="X8" t="n">
-        <v>1263.090055682042</v>
+        <v>1680.448434678415</v>
       </c>
       <c r="Y8" t="n">
-        <v>866.5993466026432</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
         <v>160.427952321271</v>
@@ -4889,16 +4889,16 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924706</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.763130931308</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>2131.283413522289</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
         <v>2131.283413522289</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1568.663050286384</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C11" t="n">
-        <v>1279.953688967018</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D11" t="n">
-        <v>1279.953688967018</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E11" t="n">
-        <v>877.3701640835627</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F11" t="n">
-        <v>460.4757256135405</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154359</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K11" t="n">
         <v>406.2953261290054</v>
@@ -5050,43 +5050,43 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N11" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W11" t="n">
-        <v>2365.648505077179</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.648505077179</v>
+        <v>1381.696262537941</v>
       </c>
       <c r="Y11" t="n">
-        <v>1969.157795997781</v>
+        <v>1150.012650815455</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1436.116207068685</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W12" t="n">
         <v>1367.096582257017</v>
@@ -5165,7 +5165,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U13" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V13" t="n">
-        <v>47.31297010154359</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W13" t="n">
-        <v>47.31297010154359</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1279.953688967018</v>
+        <v>974.1634128140886</v>
       </c>
       <c r="C14" t="n">
-        <v>1279.953688967018</v>
+        <v>580.9879113170191</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.953688967018</v>
+        <v>580.9879113170191</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>580.9879113170191</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>580.9879113170191</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154359</v>
+        <v>167.8251558050222</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>167.8251558050222</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.648505077179</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.648505077179</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.195900010236</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="Y14" t="n">
-        <v>1680.448434678415</v>
+        <v>1374.658158525486</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
         <v>160.427952321271</v>
@@ -5369,13 +5369,13 @@
         <v>1549.231189288413</v>
       </c>
       <c r="N15" t="n">
-        <v>1549.231189288413</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V16" t="n">
-        <v>77.69124027544164</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W16" t="n">
-        <v>77.69124027544164</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2058.57031924742</v>
+        <v>1185.686996799307</v>
       </c>
       <c r="C17" t="n">
-        <v>1665.394817750351</v>
+        <v>792.5114953022378</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>407.0703665189055</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>407.0703665189055</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K17" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>851.7967205028082</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M17" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.648505077179</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.648505077179</v>
+        <v>1586.181742510704</v>
       </c>
       <c r="Y17" t="n">
-        <v>2365.648505077179</v>
+        <v>1586.181742510704</v>
       </c>
     </row>
     <row r="18">
@@ -5588,13 +5588,13 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
         <v>367.0521161637701</v>
@@ -5603,16 +5603,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.14176221491</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.14176221491</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O18" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.648505077179</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
         <v>479.5672294235493</v>
@@ -5703,22 +5703,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U19" t="n">
-        <v>427.6021490532311</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V19" t="n">
-        <v>161.6228038740554</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W19" t="n">
-        <v>161.6228038740554</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1179.21044521944</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="C20" t="n">
-        <v>786.0349437223708</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="D20" t="n">
-        <v>464.2074085715658</v>
+        <v>1005.128050362556</v>
       </c>
       <c r="E20" t="n">
-        <v>464.2074085715658</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154359</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K20" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L20" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M20" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N20" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O20" t="n">
-        <v>1973.427801529577</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2321.615293661099</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.648505077179</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.648505077179</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.648505077179</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X20" t="n">
-        <v>1976.195900010236</v>
+        <v>1401.618759441955</v>
       </c>
       <c r="Y20" t="n">
-        <v>1579.705190930837</v>
+        <v>1005.128050362556</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415744</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016666</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231469</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340346</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171665</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890309</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963185</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154343</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>1116.377061006459</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.875066013061</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O21" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
         <v>2365.648505077179</v>
@@ -5873,10 +5873,10 @@
         <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1177.789504607028</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825357</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>854.2900019614185</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>684.0848840274077</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>528.4517709299225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>372.8929587891251</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>215.567024002098</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
         <v>479.5672294235493</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2089.752015541718</v>
+        <v>1696.017722907454</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.576514044649</v>
+        <v>1302.842221410384</v>
       </c>
       <c r="D23" t="n">
-        <v>1696.576514044649</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1293.992989161193</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>877.098550691171</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>463.9357951791741</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>139.8527447456648</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6004,37 +6004,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205775</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U23" t="n">
-        <v>2850.203655640374</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V23" t="n">
-        <v>2850.203655640374</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W23" t="n">
-        <v>2479.204620608662</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="X23" t="n">
-        <v>2089.752015541718</v>
+        <v>2493.00317769825</v>
       </c>
       <c r="Y23" t="n">
-        <v>2089.752015541718</v>
+        <v>2096.512468618851</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6065,25 +6065,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411551</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>570.2489711283005</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>414.6158580308152</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>259.0570458900177</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>101.7311111029907</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
         <v>677.5630210573304</v>
@@ -6177,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.4540890623113</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>840.7357579845172</v>
+        <v>1078.618840366324</v>
       </c>
       <c r="C26" t="n">
-        <v>447.5602564874478</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>2996.032391735851</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T26" t="n">
-        <v>2996.032391735851</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U26" t="n">
-        <v>2740.27966217045</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V26" t="n">
-        <v>2398.172852873969</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W26" t="n">
-        <v>2027.173817842256</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X26" t="n">
-        <v>1637.721212775313</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="Y26" t="n">
-        <v>1241.230503695914</v>
+        <v>1479.113586077721</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6411,16 +6411,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>525.0310145964513</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>239.5922228383523</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>62.11912770411553</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
         <v>62.11912770411553</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2118.082688844361</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="C29" t="n">
-        <v>2118.082688844361</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6487,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2118.082688844361</v>
+        <v>2091.745301360386</v>
       </c>
       <c r="W29" t="n">
-        <v>2118.082688844361</v>
+        <v>2091.745301360386</v>
       </c>
       <c r="X29" t="n">
-        <v>2118.082688844361</v>
+        <v>2091.745301360386</v>
       </c>
       <c r="Y29" t="n">
-        <v>2118.082688844361</v>
+        <v>1695.254592280987</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6648,10 +6648,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>760.7500664282172</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U31" t="n">
         <v>611.4288749521137</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2270.978016700502</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="C32" t="n">
-        <v>2142.621142693967</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="D32" t="n">
-        <v>1757.180013910635</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="E32" t="n">
-        <v>1354.596489027179</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="F32" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6727,25 +6727,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>3067.963471491298</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V32" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W32" t="n">
-        <v>3067.963471491298</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X32" t="n">
-        <v>3067.963471491298</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y32" t="n">
-        <v>2671.472762411899</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="33">
@@ -6788,13 +6788,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2870.237333374011</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U34" t="n">
-        <v>2584.798541615912</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>2318.819196436736</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1433.096963477125</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="C35" t="n">
-        <v>1433.096963477125</v>
+        <v>1520.421707374528</v>
       </c>
       <c r="D35" t="n">
-        <v>1433.096963477125</v>
+        <v>1134.980578591196</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.51343859367</v>
+        <v>1134.980578591196</v>
       </c>
       <c r="F35" t="n">
-        <v>613.6190001236475</v>
+        <v>718.0861401211736</v>
       </c>
       <c r="G35" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6961,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2677.949313991765</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.196584426364</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V35" t="n">
-        <v>2200.586707588237</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W35" t="n">
-        <v>1829.587672556524</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="X35" t="n">
-        <v>1829.587672556524</v>
+        <v>1913.597208871598</v>
       </c>
       <c r="Y35" t="n">
-        <v>1433.096963477125</v>
+        <v>1913.597208871598</v>
       </c>
     </row>
     <row r="36">
@@ -7131,13 +7131,13 @@
         <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>176.4289614766272</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W37" t="n">
-        <v>62.11912770411553</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X37" t="n">
-        <v>62.11912770411553</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="Y37" t="n">
         <v>62.11912770411553</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1949.014036027722</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="C38" t="n">
-        <v>1555.838534530652</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D38" t="n">
-        <v>1170.39740574732</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E38" t="n">
-        <v>767.8138808638644</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F38" t="n">
-        <v>350.9194423938421</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>350.9194423938421</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T38" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U38" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V38" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W38" t="n">
-        <v>2734.957350174064</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X38" t="n">
-        <v>2345.50474510712</v>
+        <v>2415.828351793895</v>
       </c>
       <c r="Y38" t="n">
-        <v>1949.014036027722</v>
+        <v>2019.337642714496</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7362,16 +7362,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U40" t="n">
-        <v>845.5091971691305</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V40" t="n">
-        <v>579.5298519899548</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W40" t="n">
-        <v>296.1994499211324</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X40" t="n">
         <v>62.11912770411553</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1826.272464974195</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="C41" t="n">
-        <v>1433.096963477125</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="D41" t="n">
-        <v>1433.096963477125</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="E41" t="n">
-        <v>1030.51343859367</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F41" t="n">
-        <v>613.6190001236475</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G41" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H41" t="n">
         <v>200.4562446116507</v>
@@ -7438,25 +7438,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U41" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V41" t="n">
-        <v>2725.856662194817</v>
+        <v>2335.842504695284</v>
       </c>
       <c r="W41" t="n">
-        <v>2725.856662194817</v>
+        <v>2129.490222877455</v>
       </c>
       <c r="X41" t="n">
-        <v>2623.257919764991</v>
+        <v>1740.037617810512</v>
       </c>
       <c r="Y41" t="n">
-        <v>2226.767210685592</v>
+        <v>1740.037617810512</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7599,16 +7599,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
         <v>62.11912770411553</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1660.213721337995</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.038219840925</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>881.5970910575932</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>479.0135661741377</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
         <v>62.11912770411553</v>
@@ -7648,10 +7648,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7678,22 +7678,22 @@
         <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3067.963471491298</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="U44" t="n">
-        <v>3067.963471491298</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.963471491298</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W44" t="n">
-        <v>2846.651781195734</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X44" t="n">
-        <v>2457.199176128791</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y44" t="n">
-        <v>2060.708467049392</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2148.973980501895</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7836,16 +7836,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1480133083932</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8176112395708</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X46" t="n">
         <v>62.11912770411553</v>
@@ -7981,13 +7981,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>270.6522400901334</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8066,19 +8066,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>588.3030135638863</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>282.1965676049675</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8224,19 +8224,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>149.8974233269826</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>165.3117977752916</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>197.8603359779021</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8455,10 +8455,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>270.42600945173</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8537,19 +8537,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0315943131588</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8698,19 +8698,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O11" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N12" t="n">
-        <v>92.83741255226305</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>263.585098225357</v>
       </c>
       <c r="O15" t="n">
-        <v>507.6329599720901</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
@@ -9181,10 +9181,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046925</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>614.5750717350721</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9403,7 +9403,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.9766897477665</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186067</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P21" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>373.8515870339854</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9883,7 +9883,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N26" t="n">
         <v>682.2612020826953</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10129,7 +10129,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q29" t="n">
         <v>331.2113854294513</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>517.3131487114046</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>630.6030013529515</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10910,10 +10910,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11147,10 +11147,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>324.8070240426374</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>91.61089715221595</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>188.2718157159443</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,13 +22722,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>262.7253494004271</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>233.5186129938031</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>16.83481595771246</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22956,16 +22956,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>42.52115472135472</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23023,19 +23023,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>356.226749495792</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>84.06467201061</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>103.421478775927</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23311,7 +23311,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>163.1590263833434</v>
       </c>
     </row>
     <row r="12">
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>210.2831670182382</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>17.64668189201599</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -23557,13 +23557,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>99.73581131010224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23676,7 +23676,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.3576544903973</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.48239428282091</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>193.5194173705935</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -23943,7 +23943,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>118.5727835600601</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>62.97745769620201</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24034,7 +24034,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>108.0908336090191</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.83064772952746</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24180,16 +24180,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>373.5851664031129</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>59.99746486732603</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>127.3556497966625</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>222.2917141096457</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.02366597313431</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.62118754448966</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>24.29306931111034</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>11.53897096819833</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24748,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24888,13 +24888,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U31" t="n">
-        <v>134.7564242791756</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>262.1704412156288</v>
+        <v>274.3574414970378</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3303626133469</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25156,25 +25156,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>80.46600559316363</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>119.291963133771</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>167.3303626133476</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>124.8917514574867</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>34.92990838634489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>379.2535287101296</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>163.0002856817448</v>
       </c>
       <c r="X41" t="n">
-        <v>283.985324010746</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25839,7 +25839,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
@@ -25918,7 +25918,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>29.61143348494699</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>148.1904712887871</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.708020294746</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>632864.5807388013</v>
+        <v>632864.580738802</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632864.5807388015</v>
+        <v>632864.580738802</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>632864.5807388013</v>
+        <v>632864.5807388019</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632864.5807388016</v>
+        <v>632864.580738802</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632864.5807388017</v>
+        <v>632864.580738802</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632864.5807388017</v>
+        <v>632864.5807388019</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>632864.5807388012</v>
+        <v>632864.580738802</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712993.0559827115</v>
+        <v>712993.0559827117</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712993.055982712</v>
+        <v>712993.0559827118</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712993.0559827117</v>
+        <v>712993.0559827118</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712993.0559827118</v>
+        <v>712993.055982712</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712993.0559827118</v>
+        <v>712993.0559827117</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712993.0559827117</v>
+        <v>712993.0559827115</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>191980.2613012998</v>
       </c>
       <c r="C2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="D2" t="n">
         <v>191980.2613012999</v>
       </c>
       <c r="E2" t="n">
-        <v>191980.2613012998</v>
+        <v>191980.2613012999</v>
       </c>
       <c r="F2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="G2" t="n">
-        <v>191980.2613012999</v>
+        <v>191980.2613012998</v>
       </c>
       <c r="H2" t="n">
         <v>191980.2613012998</v>
       </c>
       <c r="I2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="J2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="K2" t="n">
         <v>216278.5473416247</v>
       </c>
       <c r="L2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="M2" t="n">
-        <v>216278.5473416247</v>
+        <v>216278.5473416248</v>
       </c>
       <c r="N2" t="n">
         <v>216278.5473416248</v>
       </c>
       <c r="O2" t="n">
-        <v>216278.5473416248</v>
+        <v>216278.5473416247</v>
       </c>
       <c r="P2" t="n">
         <v>216278.5473416247</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>34799.20444337102</v>
+      </c>
+      <c r="C4" t="n">
         <v>34799.20444337101</v>
       </c>
-      <c r="C4" t="n">
-        <v>34799.204443371</v>
-      </c>
       <c r="D4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="F4" t="n">
         <v>34799.20444337101</v>
@@ -26435,7 +26435,7 @@
         <v>34799.20444337101</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="I4" t="n">
         <v>39261.69958392654</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-110600.2064109892</v>
+        <v>-111274.2325372093</v>
       </c>
       <c r="C6" t="n">
-        <v>87595.59958075575</v>
+        <v>86921.57345453565</v>
       </c>
       <c r="D6" t="n">
-        <v>87595.59958075575</v>
+        <v>86921.57345453568</v>
       </c>
       <c r="E6" t="n">
-        <v>121223.1995807557</v>
+        <v>120549.1734545357</v>
       </c>
       <c r="F6" t="n">
-        <v>121223.1995807557</v>
+        <v>120549.1734545357</v>
       </c>
       <c r="G6" t="n">
-        <v>121223.1995807557</v>
+        <v>120549.1734545357</v>
       </c>
       <c r="H6" t="n">
-        <v>121223.1995807557</v>
+        <v>120549.1734545356</v>
       </c>
       <c r="I6" t="n">
-        <v>80590.45775465126</v>
+        <v>80059.36272278616</v>
       </c>
       <c r="J6" t="n">
-        <v>-24933.12366303303</v>
+        <v>-25464.21869489819</v>
       </c>
       <c r="K6" t="n">
-        <v>129806.3107025704</v>
+        <v>129275.2156707052</v>
       </c>
       <c r="L6" t="n">
-        <v>129806.3107025704</v>
+        <v>129275.2156707052</v>
       </c>
       <c r="M6" t="n">
-        <v>129806.3107025704</v>
+        <v>129275.2156707052</v>
       </c>
       <c r="N6" t="n">
-        <v>129806.3107025705</v>
+        <v>129275.2156707053</v>
       </c>
       <c r="O6" t="n">
-        <v>129806.3107025705</v>
+        <v>129275.2156707052</v>
       </c>
       <c r="P6" t="n">
-        <v>129806.3107025704</v>
+        <v>129275.2156707052</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>127.593836910896</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9158915145745</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>189.5090087160787</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,19 +34944,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.398724908590421</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>75.25145091837332</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>110.7769711585874</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35175,10 +35175,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>117.1778397212383</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35257,19 +35257,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>554.644472263847</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35418,19 +35418,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O11" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,10 +35497,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N12" t="n">
-        <v>7.465299698096393</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="O15" t="n">
-        <v>414.9454010832013</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -35901,10 +35901,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553806</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>529.2029588809055</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.47799132937432</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P21" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>286.7682222146707</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36603,7 +36603,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>424.9260266620927</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>545.2308884987849</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37320,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37630,10 +37630,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>233.8188708867233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
